--- a/reports/test_reset_pass_report.xlsx
+++ b/reports/test_reset_pass_report.xlsx
@@ -45,8 +45,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -994,12 +994,12 @@
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>Test failed - actual behavior did not match expected result</t>
-        </is>
-      </c>
-      <c r="I11" s="4" t="inlineStr">
-        <is>
-          <t>FAILED</t>
+          <t>Test not executed</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>Not Run</t>
         </is>
       </c>
     </row>
@@ -1141,12 +1141,12 @@
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Reset Pass functionality verified</t>
+        </is>
+      </c>
+      <c r="I14" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>

--- a/reports/test_reset_pass_report.xlsx
+++ b/reports/test_reset_pass_report.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,24 +531,24 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>User needs to reset password</t>
+          <t>User is on the reset pass page</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Email address for reset</t>
+          <t>Reset Pass test data</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>1. Navigate to forgot password
-2. Enter email
-3. Submit reset request</t>
+          <t>1. Navigate to reset pass page
+2. Perform required actions
+3. Verify expected behavior</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>Password reset process should work</t>
+          <t>Reset Pass functionality should work as expected</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -580,24 +580,24 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>User needs to reset password</t>
+          <t>User is on the reset pass page</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>Email address for reset</t>
+          <t>Reset Pass test data</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>1. Navigate to forgot password
-2. Enter email
-3. Submit reset request</t>
+          <t>1. Navigate to reset pass page
+2. Perform required actions
+3. Verify expected behavior</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>Password reset process should work</t>
+          <t>Reset Pass functionality should work as expected</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
@@ -624,29 +624,29 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>Verify forgot password page's elements are visible.</t>
+          <t>Verify email required validation is visible.</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>User needs to reset password</t>
+          <t>User is on the reset pass page</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>Email address for reset</t>
+          <t>Reset Pass test data</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>1. Navigate to forgot password
-2. Enter email
-3. Submit reset request</t>
+          <t>1. Navigate to reset pass page
+2. Perform required actions
+3. Verify expected behavior</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>Password reset process should work</t>
+          <t>Reset Pass functionality should work as expected</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
@@ -673,29 +673,29 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>Verify reset password page's elements are visible.</t>
+          <t>Verify email input section's Next button is disabled.</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>User needs to reset password</t>
+          <t>User is on the reset pass page</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>Email address for reset</t>
+          <t>Reset Pass test data</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>1. Navigate to forgot password
-2. Enter email
-3. Submit reset request</t>
+          <t>1. Navigate to reset pass page
+2. Perform required actions
+3. Verify expected behavior</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>Password reset process should work</t>
+          <t>Reset Pass functionality should work as expected</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>Verify resend OTP countdown is visibile.</t>
+          <t>Verify invalid email format validation is visible.</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -771,29 +771,29 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>Verify email required validation is visible.</t>
+          <t>Verify unregistered email validation is visible.</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>User has received verification email</t>
+          <t>User is on the reset pass page</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>OTP or verification code</t>
+          <t>Reset Pass test data</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>1. Open verification page
-2. Enter verification code
-3. Submit verification</t>
+          <t>1. Navigate to reset pass page
+2. Perform required actions
+3. Verify expected behavior</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>Email should be verified successfully</t>
+          <t>Reset Pass functionality should work as expected</t>
         </is>
       </c>
       <c r="H7" s="3" t="inlineStr">
@@ -820,29 +820,29 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>Verify invalid email format validation is visible.</t>
+          <t>Verify public domain email validation is visible.</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>User has received verification email</t>
+          <t>User is on the reset pass page</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>OTP or verification code</t>
+          <t>Reset Pass test data</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>1. Open verification page
-2. Enter verification code
-3. Submit verification</t>
+          <t>1. Navigate to reset pass page
+2. Perform required actions
+3. Verify expected behavior</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>Email should be verified successfully</t>
+          <t>Reset Pass functionality should work as expected</t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
@@ -869,29 +869,29 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Verify unregistered email validation is visible.</t>
+          <t>Verify non-verified email validation is visible.</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>User is on the signup page</t>
+          <t>User is on the reset pass page</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>Signup form data</t>
+          <t>Reset Pass test data</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>1. Navigate to signup page
-2. Fill required fields
-3. Submit form</t>
+          <t>1. Navigate to reset pass page
+2. Perform required actions
+3. Verify expected behavior</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>Signup process should work as expected</t>
+          <t>Reset Pass functionality should work as expected</t>
         </is>
       </c>
       <c r="H9" s="3" t="inlineStr">
@@ -918,39 +918,39 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>Verify public domain email validation is visible.</t>
+          <t>Verify forgot password page's elements are visible.</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>User has received verification email</t>
+          <t>User is on the reset pass page</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>OTP or verification code</t>
+          <t>Reset Pass test data</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>1. Open verification page
-2. Enter verification code
-3. Submit verification</t>
+          <t>1. Navigate to reset pass page
+2. Perform required actions
+3. Verify expected behavior</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>Email should be verified successfully</t>
+          <t>Reset Pass functionality should work as expected</t>
         </is>
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I10" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Reset Pass functionality verified</t>
+        </is>
+      </c>
+      <c r="I10" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -967,29 +967,29 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>Verify non-verified email validation is visible.</t>
+          <t>Verify reset password page's elements are visible.</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>User has received verification email</t>
+          <t>User is on the reset pass page</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>OTP or verification code</t>
+          <t>Reset Pass test data</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>1. Open verification page
-2. Enter verification code
-3. Submit verification</t>
+          <t>1. Navigate to reset pass page
+2. Perform required actions
+3. Verify expected behavior</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>Email should be verified successfully</t>
+          <t>Reset Pass functionality should work as expected</t>
         </is>
       </c>
       <c r="H11" s="3" t="inlineStr">
@@ -1016,29 +1016,29 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>Verify valid email navigation user to reset password page.</t>
+          <t>Verify resend OTP countdown is visible.</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>User has received verification email</t>
+          <t>User is on the reset pass page</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>OTP or verification code</t>
+          <t>Reset Pass test data</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>1. Open verification page
-2. Enter verification code
-3. Submit verification</t>
+          <t>1. Navigate to reset pass page
+2. Perform required actions
+3. Verify expected behavior</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>Email should be verified successfully</t>
+          <t>Reset Pass functionality should work as expected</t>
         </is>
       </c>
       <c r="H12" s="3" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>Verify when all fields are empty validation message is visible.</t>
+          <t>Verify valid email navigation to reset password page.</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>Verify OTP input accepts only numbers.</t>
+          <t>Verify empty fields validation message is visible.</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>Reset Pass functionality verified</t>
-        </is>
-      </c>
-      <c r="I14" s="4" t="inlineStr">
-        <is>
-          <t>PASSED</t>
+          <t>Test not executed</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>Not Run</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>Verify max attempt limit exceeded error is visible.</t>
+          <t>Verify OTP input accepts only numbers.</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>Verify OTP input limit validation with less than 6 digits.</t>
+          <t>Verify max attempt limit exceeded error is visible.</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>Verify OTP input limit validation with more than 6 digits.</t>
+          <t>Verify OTP input limit validation with less than 6 digits.</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>Verify invalid OTP validation is visible.</t>
+          <t>Verify OTP input limit validation with more than 6 digits.</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -1359,29 +1359,29 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>Verify password complexity validation is visible.</t>
+          <t>Verify invalid OTP validation is visible.</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>User needs to reset password</t>
+          <t>User is on the reset pass page</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>Email address for reset</t>
+          <t>Reset Pass test data</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>1. Navigate to forgot password
-2. Enter email
-3. Submit reset request</t>
+          <t>1. Navigate to reset pass page
+2. Perform required actions
+3. Verify expected behavior</t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t>Password reset process should work</t>
+          <t>Reset Pass functionality should work as expected</t>
         </is>
       </c>
       <c r="H19" s="3" t="inlineStr">
@@ -1408,29 +1408,29 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>Verify password mismatch validation is visible.</t>
+          <t>Verify password complexity validation is visible.</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>User needs to reset password</t>
+          <t>User is on the reset pass page</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>Email address for reset</t>
+          <t>Reset Pass test data</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>1. Navigate to forgot password
-2. Enter email
-3. Submit reset request</t>
+          <t>1. Navigate to reset pass page
+2. Perform required actions
+3. Verify expected behavior</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>Password reset process should work</t>
+          <t>Reset Pass functionality should work as expected</t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr">
@@ -1457,29 +1457,29 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>Verify show/hide password functionality works.</t>
+          <t>Verify password mismatch validation is visible.</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>User needs to reset password</t>
+          <t>User is on the reset pass page</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>Email address for reset</t>
+          <t>Reset Pass test data</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>1. Navigate to forgot password
-2. Enter email
-3. Submit reset request</t>
+          <t>1. Navigate to reset pass page
+2. Perform required actions
+3. Verify expected behavior</t>
         </is>
       </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>Password reset process should work</t>
+          <t>Reset Pass functionality should work as expected</t>
         </is>
       </c>
       <c r="H21" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>Verify resend OTP functionality works.</t>
+          <t>Verify show/hide password functionality works.</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>Verify back button functionality on reset password page.</t>
+          <t>Verify resend OTP functionality works.</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -1604,37 +1604,86 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
+          <t>Verify back button functionality on reset password page.</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>User is on the reset pass page</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>Reset Pass test data</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>1. Navigate to reset pass page
+2. Perform required actions
+3. Verify expected behavior</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>Reset Pass functionality should work as expected</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>Test not executed</t>
+        </is>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>Not Run</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="80" customHeight="1">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>TC_024</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
           <t>Verify back button functionality on email input page.</t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>User has received verification email</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr">
-        <is>
-          <t>OTP or verification code</t>
-        </is>
-      </c>
-      <c r="F24" s="3" t="inlineStr">
-        <is>
-          <t>1. Open verification page
-2. Enter verification code
-3. Submit verification</t>
-        </is>
-      </c>
-      <c r="G24" s="3" t="inlineStr">
-        <is>
-          <t>Email should be verified successfully</t>
-        </is>
-      </c>
-      <c r="H24" s="3" t="inlineStr">
-        <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I24" s="3" t="inlineStr">
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>User is on the reset pass page</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>Reset Pass test data</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>1. Navigate to reset pass page
+2. Perform required actions
+3. Verify expected behavior</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>Reset Pass functionality should work as expected</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t>Test not executed</t>
+        </is>
+      </c>
+      <c r="I25" s="3" t="inlineStr">
         <is>
           <t>Not Run</t>
         </is>
